--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28374.41269465204</v>
+        <v>1702464.761679122</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28374.41269465204</v>
+        <v>1702464.761679122</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265232464.43586</v>
+        <v>50020457.19718762</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11132.0400693967</v>
+        <v>1125508.98956065</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21752.47958004237</v>
+        <v>2164495.04783504</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32372.91909068801</v>
+        <v>3203481.106109431</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44145.4102444701</v>
+        <v>4180043.456455588</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55917.90139825214</v>
+        <v>5156605.806801746</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67690.39255203419</v>
+        <v>6133168.157147899</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79966.01668856555</v>
+        <v>7125134.117273607</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>92164.23575082785</v>
+        <v>8101696.467619759</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>104362.4548130901</v>
+        <v>9078258.817965912</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>116560.6738753524</v>
+        <v>10054821.16831206</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>127728.8525671055</v>
+        <v>11093807.22658645</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>138897.0312588585</v>
+        <v>12132793.28486085</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>150065.2099506115</v>
+        <v>13171779.34313525</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>162263.4290128738</v>
+        <v>14148341.69348141</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173958.5150923868</v>
+        <v>15109500.43404802</v>
       </c>
     </row>
   </sheetData>
